--- a/Data/Task1.xlsx
+++ b/Data/Task1.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopalravindhran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinten Caliendo\Desktop\MUC-Bluetooth-Activity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0829E6-68C1-BA46-B47E-0E570545D5C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E7B730-81CC-49FB-B4D9-56F58180AEA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="24540" windowHeight="15000" activeTab="1" xr2:uid="{FECE7F4E-09DA-5F4D-A125-DB2D32A05213}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FECE7F4E-09DA-5F4D-A125-DB2D32A05213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$62</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$62</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet4!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet4!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet4!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet4!$F$2:$F$62</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Distance 1 (1m)</t>
   </si>
@@ -65,6 +81,15 @@
   </si>
   <si>
     <t>In between</t>
+  </si>
+  <si>
+    <t>Orientation vs RSSI</t>
+  </si>
+  <si>
+    <t>plot of RSSI vs distance</t>
+  </si>
+  <si>
+    <t>std deviation of averages</t>
   </si>
 </sst>
 </file>
@@ -782,7 +807,1341 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RSSI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$68:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$68:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-65.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-63.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-68.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-72.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EAA-4FB7-AD2F-A49539FDC159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="339174304"/>
+        <c:axId val="339175288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="339174304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance (meters)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339175288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="339175288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RSSI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339174304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Orientation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs RSSI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$71:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$71:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-56.844956930000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-54.993887190000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-61.439844399999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-54.165601559999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE9D-4DF2-8EF0-2BF4516B5F2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="530735664"/>
+        <c:axId val="530746160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="530735664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Orientation (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530746160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530746160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RSSI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530735664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>RSSI 2 Meters</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>RSSI 2 Meters</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{BAF208A4-CBBB-4CED-B8CA-D8AF658ADEED}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>RSSI </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>RSSI </a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frequency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>RSSI Frequency (with Obstruction)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>RSSI Frequency (with Obstruction)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="78000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="clusteredColumn" uniqueId="{6C74BA0D-EFF5-4037-8CA8-9FB8E2D3A819}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="auto" overflow="-40">
+              <cx:binSize val="3"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frequency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+                <a:alpha val="93000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>RSSI</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>RSSI</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1338,6 +2697,2028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1374,6 +4755,239 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>758190</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D0E0A3-521B-479C-9792-427016CD3DCE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8614410" y="1089660"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BE0FE2-99BD-45AF-8492-9EFD0BAFD449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAF0CD1-DC6D-4800-8914-6B28C6B3F6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Chart 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AE0393-D34F-4856-87A8-4A09A0ECAAE2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4922520" y="15788640"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1676,22 +5290,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748AC81-994F-6045-9DD2-E55372A1891C}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="5" width="14.296875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +5331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1743,7 +5357,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1769,7 +5383,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1795,7 +5409,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1821,7 +5435,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1847,7 +5461,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1873,7 +5487,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1899,7 +5513,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1925,7 +5539,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1951,7 +5565,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1977,7 +5591,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -2003,7 +5617,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>22</v>
       </c>
@@ -2029,7 +5643,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -2055,7 +5669,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>26</v>
       </c>
@@ -2081,7 +5695,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -2107,7 +5721,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>30</v>
       </c>
@@ -2133,7 +5747,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2159,7 +5773,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2185,7 +5799,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>36</v>
       </c>
@@ -2211,7 +5825,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2237,7 +5851,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>40</v>
       </c>
@@ -2263,7 +5877,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>42</v>
       </c>
@@ -2289,7 +5903,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>44</v>
       </c>
@@ -2315,7 +5929,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>46</v>
       </c>
@@ -2341,7 +5955,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>48</v>
       </c>
@@ -2367,7 +5981,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>50</v>
       </c>
@@ -2393,7 +6007,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>52</v>
       </c>
@@ -2419,7 +6033,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>54</v>
       </c>
@@ -2445,7 +6059,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>56</v>
       </c>
@@ -2471,7 +6085,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>58</v>
       </c>
@@ -2497,7 +6111,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>60</v>
       </c>
@@ -2523,7 +6137,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>62</v>
       </c>
@@ -2549,7 +6163,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>64</v>
       </c>
@@ -2575,7 +6189,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>66</v>
       </c>
@@ -2601,7 +6215,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>68</v>
       </c>
@@ -2627,7 +6241,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>70</v>
       </c>
@@ -2653,7 +6267,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>72</v>
       </c>
@@ -2679,7 +6293,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>74</v>
       </c>
@@ -2705,7 +6319,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>76</v>
       </c>
@@ -2731,7 +6345,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>78</v>
       </c>
@@ -2757,7 +6371,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>80</v>
       </c>
@@ -2783,7 +6397,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>82</v>
       </c>
@@ -2809,7 +6423,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>84</v>
       </c>
@@ -2835,7 +6449,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>86</v>
       </c>
@@ -2861,7 +6475,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>88</v>
       </c>
@@ -2887,7 +6501,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>90</v>
       </c>
@@ -2913,7 +6527,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>92</v>
       </c>
@@ -2939,7 +6553,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>94</v>
       </c>
@@ -2965,7 +6579,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>96</v>
       </c>
@@ -2991,7 +6605,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>98</v>
       </c>
@@ -3017,7 +6631,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -3043,7 +6657,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>102</v>
       </c>
@@ -3069,7 +6683,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>104</v>
       </c>
@@ -3095,7 +6709,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>106</v>
       </c>
@@ -3121,7 +6735,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>108</v>
       </c>
@@ -3147,7 +6761,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>110</v>
       </c>
@@ -3173,7 +6787,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>112</v>
       </c>
@@ -3199,7 +6813,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>114</v>
       </c>
@@ -3225,7 +6839,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>116</v>
       </c>
@@ -3251,7 +6865,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>118</v>
       </c>
@@ -3277,7 +6891,7 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>120</v>
       </c>
@@ -3303,60 +6917,116 @@
         <v>-77</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63">
-        <f>AVERAGE(B1:B62)</f>
+        <f t="shared" ref="B63:H63" si="0">AVERAGE(B1:B62)</f>
         <v>-63.213114754098363</v>
       </c>
       <c r="C63">
-        <f>AVERAGE(C1:C62)</f>
+        <f t="shared" si="0"/>
         <v>-58.950819672131146</v>
       </c>
       <c r="D63">
-        <f>AVERAGE(D1:D62)</f>
+        <f t="shared" si="0"/>
         <v>-65.770491803278688</v>
       </c>
       <c r="E63">
-        <f>AVERAGE(E1:E62)</f>
+        <f t="shared" si="0"/>
         <v>-60.245901639344261</v>
       </c>
       <c r="F63">
-        <f>AVERAGE(F1:F62)</f>
+        <f t="shared" si="0"/>
         <v>-63.524590163934427</v>
       </c>
       <c r="G63">
-        <f>AVERAGE(G1:G62)</f>
+        <f t="shared" si="0"/>
         <v>-68.114754098360649</v>
       </c>
       <c r="H63">
-        <f>AVERAGE(H1:H62)</f>
+        <f t="shared" si="0"/>
         <v>-72.950819672131146</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>-65.77</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>-60.25</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>-63.52</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>-68.11</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>-72.95</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <f>_xlfn.STDEV.P(E68:E72)</f>
+        <v>4.2883190179836204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56185B5-56AA-E24B-98AD-90385E515B36}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3376,7 +7046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3396,7 +7066,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3416,7 +7086,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3436,7 +7106,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3456,7 +7126,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3476,7 +7146,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3496,7 +7166,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3516,7 +7186,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -3536,7 +7206,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -3556,7 +7226,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -3576,7 +7246,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -3596,7 +7266,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>22</v>
       </c>
@@ -3616,7 +7286,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -3636,7 +7306,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>26</v>
       </c>
@@ -3656,7 +7326,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -3676,7 +7346,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>30</v>
       </c>
@@ -3696,7 +7366,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>32</v>
       </c>
@@ -3716,7 +7386,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>34</v>
       </c>
@@ -3736,7 +7406,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>36</v>
       </c>
@@ -3756,7 +7426,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>38</v>
       </c>
@@ -3776,7 +7446,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>40</v>
       </c>
@@ -3796,7 +7466,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>42</v>
       </c>
@@ -3816,7 +7486,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>44</v>
       </c>
@@ -3836,7 +7506,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>46</v>
       </c>
@@ -3853,10 +7523,10 @@
         <v>-63</v>
       </c>
       <c r="F25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>48</v>
       </c>
@@ -3876,7 +7546,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>50</v>
       </c>
@@ -3896,7 +7566,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>52</v>
       </c>
@@ -3916,7 +7586,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>54</v>
       </c>
@@ -3936,7 +7606,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>56</v>
       </c>
@@ -3956,7 +7626,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>58</v>
       </c>
@@ -3976,7 +7646,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>60</v>
       </c>
@@ -3996,7 +7666,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>62</v>
       </c>
@@ -4016,7 +7686,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>64</v>
       </c>
@@ -4036,7 +7706,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>66</v>
       </c>
@@ -4056,7 +7726,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>68</v>
       </c>
@@ -4076,7 +7746,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>70</v>
       </c>
@@ -4096,7 +7766,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>72</v>
       </c>
@@ -4116,7 +7786,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>74</v>
       </c>
@@ -4136,7 +7806,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>76</v>
       </c>
@@ -4156,7 +7826,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>78</v>
       </c>
@@ -4176,7 +7846,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>80</v>
       </c>
@@ -4196,7 +7866,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>82</v>
       </c>
@@ -4216,7 +7886,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>84</v>
       </c>
@@ -4236,7 +7906,7 @@
         <v>-67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>86</v>
       </c>
@@ -4256,7 +7926,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>88</v>
       </c>
@@ -4276,7 +7946,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>90</v>
       </c>
@@ -4296,7 +7966,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>92</v>
       </c>
@@ -4316,7 +7986,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4336,7 +8006,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>96</v>
       </c>
@@ -4356,7 +8026,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>98</v>
       </c>
@@ -4376,7 +8046,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -4396,7 +8066,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>102</v>
       </c>
@@ -4416,7 +8086,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>104</v>
       </c>
@@ -4436,7 +8106,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>106</v>
       </c>
@@ -4456,7 +8126,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>108</v>
       </c>
@@ -4476,7 +8146,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>110</v>
       </c>
@@ -4496,7 +8166,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>112</v>
       </c>
@@ -4516,7 +8186,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>114</v>
       </c>
@@ -4536,7 +8206,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>116</v>
       </c>
@@ -4556,7 +8226,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>118</v>
       </c>
@@ -4576,7 +8246,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>120</v>
       </c>
@@ -4596,7 +8266,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63">
         <f>AVERAGE(B1:B62)</f>
         <v>-57.852459016393439</v>
@@ -4615,11 +8285,49 @@
       </c>
       <c r="F63">
         <f>AVERAGE(F1:F62)</f>
-        <v>-56.606557377049178</v>
+        <v>-58.311475409836063</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>-56.844956930000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>90</v>
+      </c>
+      <c r="C72">
+        <v>-54.993887190000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>180</v>
+      </c>
+      <c r="C73">
+        <v>-61.439844399999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>270</v>
+      </c>
+      <c r="C74">
+        <v>-54.165601559999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>